--- a/src/data/profiles/xlsx/bluff/profile 30-1 graph.xlsx
+++ b/src/data/profiles/xlsx/bluff/profile 30-1 graph.xlsx
@@ -18391,11 +18391,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="91079680"/>
-        <c:axId val="33011170"/>
+        <c:axId val="54157569"/>
+        <c:axId val="66014794"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="91079680"/>
+        <c:axId val="54157569"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18430,12 +18430,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="33011170"/>
+        <c:crossAx val="66014794"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="33011170"/>
+        <c:axId val="66014794"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18479,7 +18479,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="91079680"/>
+        <c:crossAx val="54157569"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
